--- a/database/industries/lastic/pekerman/cost/yearly.xlsx
+++ b/database/industries/lastic/pekerman/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F582E82-3B49-45C9-808A-C4B99AB6E706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پکرمان-گروه‌ صنعتی‌ بارز</t>
@@ -201,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,7 +372,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -383,7 +384,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -430,6 +431,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -465,6 +483,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,7 +651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/lastic/pekerman/cost/yearly.xlsx
+++ b/database/industries/lastic/pekerman/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F582E82-3B49-45C9-808A-C4B99AB6E706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D56999-172E-4C0C-8848-9E91352C9018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -656,12 +656,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -671,7 +671,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -683,7 +683,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -695,7 +695,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -705,7 +705,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -717,7 +717,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,7 +739,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -771,7 +771,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -793,7 +793,7 @@
         <v>41020572</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -815,7 +815,7 @@
         <v>1415797</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -837,7 +837,7 @@
         <v>5882252</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
@@ -859,7 +859,7 @@
         <v>48318621</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -903,7 +903,7 @@
         <v>48318621</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -925,7 +925,7 @@
         <v>-259625</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
@@ -969,7 +969,7 @@
         <v>48058996</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -991,7 +991,7 @@
         <v>3809251</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>-5035014</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>46833233</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>46833233</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1089,7 +1089,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1099,7 +1099,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1109,7 +1109,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1141,7 +1141,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>269756</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>308950</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>1935737</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>30</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>2639570</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>2850447</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>32</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>2429160</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>33</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>935182</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>12</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>11368802</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1341,7 +1341,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1351,7 +1351,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1361,7 +1361,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>34</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1393,7 +1393,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>24</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>4197425</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>27</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>1259000</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>29</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>14324287</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>30</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>9822437</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>23444824</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>32</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>19038797</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>33</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>21734172</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>12</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>93820942</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1593,7 +1593,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1603,7 +1603,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1613,7 +1613,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>35</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1645,7 +1645,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>24</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>4304443</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>27</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>991734</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>29</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>13643497</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>30</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>10638477</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>31</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>22615383</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>32</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>19846794</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>33</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>21482181</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>12</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>93522509</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1845,7 +1845,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1855,7 +1855,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1865,7 +1865,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>36</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1897,7 +1897,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>24</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>162738</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>27</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>576216</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>29</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>2616527</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>30</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>1823530</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>31</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>3679888</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>32</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>1621163</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>33</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>1187173</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>12</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>11667235</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2097,7 +2097,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2107,7 +2107,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2117,7 +2117,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>37</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2149,7 +2149,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>24</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>286612</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>27</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>18769</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>29</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>1189782</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>30</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>879462</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>31</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>1063758</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>32</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1019599</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>33</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>209843</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>12</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>4667825</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2349,7 +2349,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2359,7 +2359,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2369,7 +2369,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>39</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2401,7 +2401,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>24</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>5844232</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>27</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>234121</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>29</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>6068012</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>30</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>3819747</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>31</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>11120210</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>32</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>8724928</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>33</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>5732781</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>12</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>41544031</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2601,7 +2601,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2611,7 +2611,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2621,7 +2621,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>40</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2653,7 +2653,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>24</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>5839879</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>27</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>169200</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>29</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>5839762</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>30</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>3955260</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>31</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>10689784</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>32</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>8909061</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>33</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>5617625</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>12</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>41020571</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2853,7 +2853,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2863,7 +2863,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2873,7 +2873,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>41</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2905,7 +2905,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>24</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>290965</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>27</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>83690</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>29</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>1418032</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>30</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>743949</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>31</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>1494184</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>32</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>835466</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>33</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>324999</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>12</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>5191285</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3105,7 +3105,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3115,7 +3115,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3125,7 +3125,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>42</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3157,7 +3157,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>24</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>1062486</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>27</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>60751</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>29</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>614640</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>30</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>333184</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>31</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>373190</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>32</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>419733</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>33</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>224387</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3335,7 +3335,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3345,7 +3345,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3355,7 +3355,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>45</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3387,7 +3387,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>24</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>1392337</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>27</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>185958</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>29</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>423617</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>30</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>388880</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>31</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>474314</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>32</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>458271</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>33</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>263768</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3565,7 +3565,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3575,7 +3575,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3585,7 +3585,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>46</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3617,7 +3617,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>24</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>1356710</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>27</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>170610</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>29</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>428025</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>30</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>371788</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>31</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>472678</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>32</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>448892</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>33</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>261502</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3795,7 +3795,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3805,7 +3805,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3815,7 +3815,7 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B167" s="7" t="s">
         <v>47</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3847,7 +3847,7 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>24</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>1787935</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>27</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>145241</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>29</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>541952</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>30</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>407972</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>31</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>406041</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>32</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>515350</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>33</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>273759</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4025,7 +4025,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4035,7 +4035,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4045,7 +4045,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
         <v>48</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4077,7 +4077,7 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>49</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>50</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>51</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>52</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>53</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>398677</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>54</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>360739</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>55</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>511416</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>56</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>3111706</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>57</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>58</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>1499714</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="14" t="s">
         <v>12</v>
       </c>
